--- a/biology/Zoologie/Gigantocamelus/Gigantocamelus.xlsx
+++ b/biology/Zoologie/Gigantocamelus/Gigantocamelus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gigantocamelus est un genre éteint de la famille des camélidés, ayant vécu aux États-Unis du Pliocène au Pléistocène, il y a environ 4,68 millions d'années. C'était la deuxième plus grande espèce connue de camelidés.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (20 mai 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (20 mai 2020) :
 Gigantocamelus fricki Barbour &amp; Schultz, 1939 † - espèce type
 Gigantocamelus spatulus (Cope, 1893) †</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Erwin Hinckly Barbour et C. Bertrand Schultz, « A New Giant Camel Gigantocamelus fricki, gen. et sp. nov. », Bulletin of the University of Nebraska State Museum, University of Nebraska State Museum (d), vol. 2, no 2,‎ septembre 1939, p. 17-27 (ISSN 0093-6812, lire en ligne)</t>
         </is>
